--- a/biology/Zoologie/Conus_epistomium/Conus_epistomium.xlsx
+++ b/biology/Zoologie/Conus_epistomium/Conus_epistomium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus epistomium est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Publication originale
-L'espèce Conus epistomium a été décrite pour la première fois en 1844 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »[1],[2].
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus epistomium a été décrite pour la première fois en 1844 par l'éditeur et naturaliste britannique Lovell Augustus Reeve (1814-1865) dans « Conchologia Iconica, or, illustrations of the shells of molluscous animals »,.
 </t>
         </is>
       </c>
